--- a/xlsx/country_comparison/variables_ncs_gcs_ics_control_by_country.xlsx
+++ b/xlsx/country_comparison/variables_ncs_gcs_ics_control_by_country.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">along</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -434,13 +437,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>66.4226512802836</v>
+        <v>67.9579005629342</v>
       </c>
       <c r="C2" t="n">
-        <v>64.9096430217063</v>
+        <v>66.5629159503712</v>
       </c>
       <c r="D2" t="n">
-        <v>67.9356595388609</v>
+        <v>69.3528851754971</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -454,10 +457,10 @@
         <v>65.7193301686884</v>
       </c>
       <c r="C3" t="n">
-        <v>63.4156502506591</v>
+        <v>63.327250467561</v>
       </c>
       <c r="D3" t="n">
-        <v>68.0230100867176</v>
+        <v>68.1114098698158</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -604,13 +607,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>88.0240645828152</v>
+        <v>74.5408968197829</v>
       </c>
       <c r="C12" t="n">
-        <v>85.1463408835229</v>
+        <v>70.4376938517134</v>
       </c>
       <c r="D12" t="n">
-        <v>90.9017882821076</v>
+        <v>78.6440997878525</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -621,13 +624,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>64.0316340570691</v>
+        <v>88.0240645828152</v>
       </c>
       <c r="C13" t="n">
-        <v>61.0437144353759</v>
+        <v>85.1463408835229</v>
       </c>
       <c r="D13" t="n">
-        <v>67.0195536787622</v>
+        <v>90.9017882821076</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -635,220 +638,220 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>56.9461678435988</v>
+        <v>64.0316340570691</v>
       </c>
       <c r="C14" t="n">
-        <v>55.3478142905726</v>
+        <v>61.0437144353759</v>
       </c>
       <c r="D14" t="n">
-        <v>58.544521396625</v>
+        <v>67.0195536787622</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>61.0914766632881</v>
+        <v>55.2696634386495</v>
       </c>
       <c r="C15" t="n">
-        <v>58.6781656092206</v>
+        <v>53.7756112874924</v>
       </c>
       <c r="D15" t="n">
-        <v>63.5047877173556</v>
+        <v>56.7637155898066</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>64.9673122291722</v>
+        <v>61.0914766632881</v>
       </c>
       <c r="C16" t="n">
-        <v>59.3992033869328</v>
+        <v>58.5855589184828</v>
       </c>
       <c r="D16" t="n">
-        <v>70.5354210714115</v>
+        <v>63.5973944080934</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="n">
-        <v>53.4385977368577</v>
+        <v>64.9673122291722</v>
       </c>
       <c r="C17" t="n">
-        <v>48.0321156669202</v>
+        <v>59.3992033869328</v>
       </c>
       <c r="D17" t="n">
-        <v>58.8450798067952</v>
+        <v>70.5354210714115</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="n">
-        <v>77.6272593268426</v>
+        <v>53.4385977368577</v>
       </c>
       <c r="C18" t="n">
-        <v>72.1575735135222</v>
+        <v>48.0321156669202</v>
       </c>
       <c r="D18" t="n">
-        <v>83.096945140163</v>
+        <v>58.8450798067952</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="n">
-        <v>50.6505049421928</v>
+        <v>77.6272593268426</v>
       </c>
       <c r="C19" t="n">
-        <v>43.4461438332552</v>
+        <v>72.1575735135222</v>
       </c>
       <c r="D19" t="n">
-        <v>57.8548660511305</v>
+        <v>83.096945140163</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" t="n">
-        <v>68.1637766424686</v>
+        <v>50.6505049421928</v>
       </c>
       <c r="C20" t="n">
-        <v>61.4691060486183</v>
+        <v>43.4461438332552</v>
       </c>
       <c r="D20" t="n">
-        <v>74.8584472363189</v>
+        <v>57.8548660511305</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>58.1054438205453</v>
+        <v>68.1637766424686</v>
       </c>
       <c r="C21" t="n">
-        <v>52.2449554479066</v>
+        <v>61.4691060486183</v>
       </c>
       <c r="D21" t="n">
-        <v>63.9659321931841</v>
+        <v>74.8584472363189</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>62.3284705512702</v>
+        <v>58.1054438205453</v>
       </c>
       <c r="C22" t="n">
-        <v>54.8202337538028</v>
+        <v>52.2449554479066</v>
       </c>
       <c r="D22" t="n">
-        <v>69.8367073487375</v>
+        <v>63.9659321931841</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="n">
-        <v>56.8487902138407</v>
+        <v>62.3284705512702</v>
       </c>
       <c r="C23" t="n">
-        <v>53.0489556558464</v>
+        <v>54.8202337538028</v>
       </c>
       <c r="D23" t="n">
-        <v>60.6486247718351</v>
+        <v>69.8367073487375</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="n">
-        <v>84.6671870687128</v>
+        <v>56.8487902138407</v>
       </c>
       <c r="C24" t="n">
-        <v>81.5370908779266</v>
+        <v>53.0489556558464</v>
       </c>
       <c r="D24" t="n">
-        <v>87.7972832594991</v>
+        <v>60.6486247718351</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>48.604165854654</v>
+        <v>48.2451141436668</v>
       </c>
       <c r="C25" t="n">
-        <v>45.4876429339214</v>
+        <v>43.5221330192862</v>
       </c>
       <c r="D25" t="n">
-        <v>51.7206887753866</v>
+        <v>52.9680952680473</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B26" t="n">
-        <v>65.7757973018818</v>
+        <v>84.6671870687128</v>
       </c>
       <c r="C26" t="n">
-        <v>64.0068544978405</v>
+        <v>81.5370908779266</v>
       </c>
       <c r="D26" t="n">
-        <v>67.5447401059231</v>
+        <v>87.7972832594991</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -856,16 +859,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n">
-        <v>68.8160595583607</v>
+        <v>48.604165854654</v>
       </c>
       <c r="C27" t="n">
-        <v>66.2371125774316</v>
+        <v>45.4876429339214</v>
       </c>
       <c r="D27" t="n">
-        <v>71.3950065392897</v>
+        <v>51.7206887753866</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -873,186 +876,186 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>75.3397348285344</v>
+        <v>64.6020160692236</v>
       </c>
       <c r="C28" t="n">
-        <v>69.3207133551666</v>
+        <v>62.8749675779216</v>
       </c>
       <c r="D28" t="n">
-        <v>81.3587563019022</v>
+        <v>66.3290645605256</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" t="n">
-        <v>62.7385682537816</v>
+        <v>68.8160595583607</v>
       </c>
       <c r="C29" t="n">
-        <v>56.9713912622243</v>
+        <v>66.1381498908398</v>
       </c>
       <c r="D29" t="n">
-        <v>68.5057452453388</v>
+        <v>71.4939692258815</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" t="n">
-        <v>84.8771216338856</v>
+        <v>75.3397348285344</v>
       </c>
       <c r="C30" t="n">
-        <v>79.8094317803675</v>
+        <v>69.3207133551666</v>
       </c>
       <c r="D30" t="n">
-        <v>89.9448114874036</v>
+        <v>81.3587563019022</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" t="n">
-        <v>60.3075714398011</v>
+        <v>62.7385682537816</v>
       </c>
       <c r="C31" t="n">
-        <v>52.2319065212922</v>
+        <v>56.9713912622243</v>
       </c>
       <c r="D31" t="n">
-        <v>68.38323635831</v>
+        <v>68.5057452453388</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" t="n">
-        <v>70.7904376466329</v>
+        <v>84.8771216338856</v>
       </c>
       <c r="C32" t="n">
-        <v>63.7881425796704</v>
+        <v>79.8094317803675</v>
       </c>
       <c r="D32" t="n">
-        <v>77.7927327135954</v>
+        <v>89.9448114874036</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" t="n">
-        <v>63.7497870612938</v>
+        <v>60.3075714398011</v>
       </c>
       <c r="C33" t="n">
-        <v>57.2666608725045</v>
+        <v>52.2319065212922</v>
       </c>
       <c r="D33" t="n">
-        <v>70.2329132500831</v>
+        <v>68.38323635831</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B34" t="n">
-        <v>61.691572049826</v>
+        <v>70.7904376466329</v>
       </c>
       <c r="C34" t="n">
-        <v>53.0296256962493</v>
+        <v>63.7881425796704</v>
       </c>
       <c r="D34" t="n">
-        <v>70.3535184034027</v>
+        <v>77.7927327135954</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" t="n">
-        <v>66.5884503407556</v>
+        <v>63.7497870612938</v>
       </c>
       <c r="C35" t="n">
-        <v>62.4353137337371</v>
+        <v>57.2666608725045</v>
       </c>
       <c r="D35" t="n">
-        <v>70.7415869477741</v>
+        <v>70.2329132500831</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" t="n">
-        <v>86.9712358856764</v>
+        <v>61.691572049826</v>
       </c>
       <c r="C36" t="n">
-        <v>82.7647448389843</v>
+        <v>53.0296256962493</v>
       </c>
       <c r="D36" t="n">
-        <v>91.1777269323686</v>
+        <v>70.3535184034027</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37" t="n">
-        <v>60.3307739305438</v>
+        <v>66.5884503407556</v>
       </c>
       <c r="C37" t="n">
-        <v>56.7843902921608</v>
+        <v>62.4353137337371</v>
       </c>
       <c r="D37" t="n">
-        <v>63.8771575689268</v>
+        <v>70.7415869477741</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B38" t="n">
-        <v>67.6120341228827</v>
+        <v>56.6004208236377</v>
       </c>
       <c r="C38" t="n">
-        <v>65.8207252996536</v>
+        <v>49.7486527887399</v>
       </c>
       <c r="D38" t="n">
-        <v>69.4033429461117</v>
+        <v>63.4521888585355</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -1060,16 +1063,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B39" t="n">
-        <v>73.1501666372061</v>
+        <v>86.9712358856764</v>
       </c>
       <c r="C39" t="n">
-        <v>70.6041412313073</v>
+        <v>82.7647448389843</v>
       </c>
       <c r="D39" t="n">
-        <v>75.6961920431049</v>
+        <v>91.1777269323686</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
@@ -1077,16 +1080,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B40" t="n">
-        <v>75.9578759812179</v>
+        <v>60.3307739305438</v>
       </c>
       <c r="C40" t="n">
-        <v>69.8974349487303</v>
+        <v>56.7843902921608</v>
       </c>
       <c r="D40" t="n">
-        <v>82.0183170137056</v>
+        <v>63.8771575689268</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>
@@ -1094,169 +1097,169 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B41" t="n">
-        <v>71.5781509811605</v>
+        <v>67.3589957678886</v>
       </c>
       <c r="C41" t="n">
-        <v>65.9187615476385</v>
+        <v>65.6493302674814</v>
       </c>
       <c r="D41" t="n">
-        <v>77.2375404146825</v>
+        <v>69.0686612682958</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B42" t="n">
-        <v>82.6621609973818</v>
+        <v>73.1501666372061</v>
       </c>
       <c r="C42" t="n">
-        <v>77.5661422058304</v>
+        <v>70.5064418539405</v>
       </c>
       <c r="D42" t="n">
-        <v>87.7581797889331</v>
+        <v>75.7938914204716</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B43" t="n">
-        <v>53.9542753382839</v>
+        <v>75.9578759812179</v>
       </c>
       <c r="C43" t="n">
-        <v>44.4656620658742</v>
+        <v>69.8974349487303</v>
       </c>
       <c r="D43" t="n">
-        <v>63.4428886106937</v>
+        <v>82.0183170137056</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B44" t="n">
-        <v>77.7187061273175</v>
+        <v>71.5781509811605</v>
       </c>
       <c r="C44" t="n">
-        <v>70.9686925349925</v>
+        <v>65.9187615476385</v>
       </c>
       <c r="D44" t="n">
-        <v>84.4687197196424</v>
+        <v>77.2375404146825</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B45" t="n">
-        <v>67.466334415845</v>
+        <v>82.6621609973818</v>
       </c>
       <c r="C45" t="n">
-        <v>60.9439017599703</v>
+        <v>77.5661422058304</v>
       </c>
       <c r="D45" t="n">
-        <v>73.9887670717197</v>
+        <v>87.7581797889331</v>
       </c>
       <c r="E45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B46" t="n">
-        <v>63.7890555129928</v>
+        <v>53.9542753382839</v>
       </c>
       <c r="C46" t="n">
-        <v>54.5962842561538</v>
+        <v>44.4656620658742</v>
       </c>
       <c r="D46" t="n">
-        <v>72.9818267698318</v>
+        <v>63.4428886106937</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B47" t="n">
-        <v>67.2922348590199</v>
+        <v>77.7187061273175</v>
       </c>
       <c r="C47" t="n">
-        <v>63.1361487786572</v>
+        <v>70.9686925349925</v>
       </c>
       <c r="D47" t="n">
-        <v>71.4483209393825</v>
+        <v>84.4687197196424</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B48" t="n">
-        <v>86.513074970901</v>
+        <v>67.466334415845</v>
       </c>
       <c r="C48" t="n">
-        <v>82.3040143916166</v>
+        <v>60.9439017599703</v>
       </c>
       <c r="D48" t="n">
-        <v>90.7221355501854</v>
+        <v>73.9887670717197</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B49" t="n">
-        <v>58.9366541153335</v>
+        <v>63.7890555129928</v>
       </c>
       <c r="C49" t="n">
-        <v>55.2363867199154</v>
+        <v>54.5962842561538</v>
       </c>
       <c r="D49" t="n">
-        <v>62.6369215107515</v>
+        <v>72.9818267698318</v>
       </c>
       <c r="E49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>69.9010110708032</v>
+        <v>67.2922348590199</v>
       </c>
       <c r="C50" t="n">
-        <v>68.2169813474889</v>
+        <v>63.1361487786572</v>
       </c>
       <c r="D50" t="n">
-        <v>71.5850407941175</v>
+        <v>71.4483209393825</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -1264,16 +1267,16 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B51" t="n">
-        <v>73.33558792255</v>
+        <v>64.9824905118065</v>
       </c>
       <c r="C51" t="n">
-        <v>70.8490103599328</v>
+        <v>58.870524002589</v>
       </c>
       <c r="D51" t="n">
-        <v>75.8221654851672</v>
+        <v>71.094457021024</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
@@ -1281,16 +1284,16 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B52" t="n">
-        <v>76.3148103910017</v>
+        <v>86.513074970901</v>
       </c>
       <c r="C52" t="n">
-        <v>70.4373067077145</v>
+        <v>82.3040143916166</v>
       </c>
       <c r="D52" t="n">
-        <v>82.192314074289</v>
+        <v>90.7221355501854</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
@@ -1298,16 +1301,16 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B53" t="n">
-        <v>77.0272348727413</v>
+        <v>58.9366541153335</v>
       </c>
       <c r="C53" t="n">
-        <v>71.9336184691947</v>
+        <v>55.2363867199154</v>
       </c>
       <c r="D53" t="n">
-        <v>82.120851276288</v>
+        <v>62.6369215107515</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
@@ -1315,152 +1318,152 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B54" t="n">
-        <v>78.8435848365109</v>
+        <v>68.5061536753791</v>
       </c>
       <c r="C54" t="n">
-        <v>72.8771340865586</v>
+        <v>66.8642810881035</v>
       </c>
       <c r="D54" t="n">
-        <v>84.8100355864632</v>
+        <v>70.1480262626546</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B55" t="n">
-        <v>71.308717218709</v>
+        <v>73.33558792255</v>
       </c>
       <c r="C55" t="n">
-        <v>63.5032387370733</v>
+        <v>70.753592192039</v>
       </c>
       <c r="D55" t="n">
-        <v>79.1141957003448</v>
+        <v>75.917583653061</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B56" t="n">
-        <v>74.199477200258</v>
+        <v>76.3148103910017</v>
       </c>
       <c r="C56" t="n">
-        <v>67.077857707321</v>
+        <v>70.4373067077145</v>
       </c>
       <c r="D56" t="n">
-        <v>81.321096693195</v>
+        <v>82.192314074289</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B57" t="n">
-        <v>62.534539350272</v>
+        <v>77.0272348727413</v>
       </c>
       <c r="C57" t="n">
-        <v>56.2410190182159</v>
+        <v>71.9336184691947</v>
       </c>
       <c r="D57" t="n">
-        <v>68.828059682328</v>
+        <v>82.120851276288</v>
       </c>
       <c r="E57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B58" t="n">
-        <v>74.3491876231661</v>
+        <v>78.8435848365109</v>
       </c>
       <c r="C58" t="n">
-        <v>66.2614369313852</v>
+        <v>72.8771340865586</v>
       </c>
       <c r="D58" t="n">
-        <v>82.4369383149469</v>
+        <v>84.8100355864632</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B59" t="n">
-        <v>70.796250180037</v>
+        <v>71.308717218709</v>
       </c>
       <c r="C59" t="n">
-        <v>66.7926298110495</v>
+        <v>63.5032387370733</v>
       </c>
       <c r="D59" t="n">
-        <v>74.7998705490245</v>
+        <v>79.1141957003448</v>
       </c>
       <c r="E59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B60" t="n">
-        <v>90.518282762834</v>
+        <v>74.199477200258</v>
       </c>
       <c r="C60" t="n">
-        <v>86.8195647466605</v>
+        <v>67.077857707321</v>
       </c>
       <c r="D60" t="n">
-        <v>94.2170007790074</v>
+        <v>81.321096693195</v>
       </c>
       <c r="E60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B61" t="n">
-        <v>63.6481822477839</v>
+        <v>62.534539350272</v>
       </c>
       <c r="C61" t="n">
-        <v>60.3376811776607</v>
+        <v>56.2410190182159</v>
       </c>
       <c r="D61" t="n">
-        <v>66.958683317907</v>
+        <v>68.828059682328</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B62" t="n">
-        <v>63.2380148473265</v>
+        <v>74.3491876231661</v>
       </c>
       <c r="C62" t="n">
-        <v>61.4387131170132</v>
+        <v>66.2614369313852</v>
       </c>
       <c r="D62" t="n">
-        <v>65.0373165776399</v>
+        <v>82.4369383149469</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -1468,16 +1471,16 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B63" t="n">
-        <v>67.9633244466616</v>
+        <v>70.796250180037</v>
       </c>
       <c r="C63" t="n">
-        <v>65.2763872794922</v>
+        <v>66.7926298110495</v>
       </c>
       <c r="D63" t="n">
-        <v>70.6502616138309</v>
+        <v>74.7998705490245</v>
       </c>
       <c r="E63" t="s">
         <v>22</v>
@@ -1485,16 +1488,16 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B64" t="n">
-        <v>61.4641799995525</v>
+        <v>60.7672609910995</v>
       </c>
       <c r="C64" t="n">
-        <v>54.8020284324472</v>
+        <v>54.3005242852364</v>
       </c>
       <c r="D64" t="n">
-        <v>68.1263315666578</v>
+        <v>67.2339976969626</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
@@ -1502,16 +1505,16 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B65" t="n">
-        <v>68.0628787989001</v>
+        <v>90.518282762834</v>
       </c>
       <c r="C65" t="n">
-        <v>62.4705139067261</v>
+        <v>86.8195647466605</v>
       </c>
       <c r="D65" t="n">
-        <v>73.6552436910742</v>
+        <v>94.2170007790074</v>
       </c>
       <c r="E65" t="s">
         <v>22</v>
@@ -1519,16 +1522,16 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B66" t="n">
-        <v>79.3318305400507</v>
+        <v>63.6481822477839</v>
       </c>
       <c r="C66" t="n">
-        <v>73.2087750566274</v>
+        <v>60.3376811776607</v>
       </c>
       <c r="D66" t="n">
-        <v>85.454886023474</v>
+        <v>66.958683317907</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
@@ -1536,121 +1539,223 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B67" t="n">
-        <v>56.6663585514635</v>
+        <v>61.9858273857402</v>
       </c>
       <c r="C67" t="n">
-        <v>47.8002567541119</v>
+        <v>60.2358718207968</v>
       </c>
       <c r="D67" t="n">
-        <v>65.5324603488151</v>
+        <v>63.7357829506836</v>
       </c>
       <c r="E67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B68" t="n">
-        <v>77.4540600482755</v>
+        <v>67.9633244466616</v>
       </c>
       <c r="C68" t="n">
-        <v>70.6523148791807</v>
+        <v>65.1732806539072</v>
       </c>
       <c r="D68" t="n">
-        <v>84.2558052173703</v>
+        <v>70.7533682394159</v>
       </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B69" t="n">
-        <v>66.1815968025775</v>
+        <v>61.4641799995525</v>
       </c>
       <c r="C69" t="n">
-        <v>59.3861228877491</v>
+        <v>54.8020284324472</v>
       </c>
       <c r="D69" t="n">
-        <v>72.9770707174058</v>
+        <v>68.1263315666578</v>
       </c>
       <c r="E69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B70" t="n">
-        <v>64.7145596361043</v>
+        <v>68.0628787989001</v>
       </c>
       <c r="C70" t="n">
-        <v>56.3374952091266</v>
+        <v>62.4705139067261</v>
       </c>
       <c r="D70" t="n">
-        <v>73.091624063082</v>
+        <v>73.6552436910742</v>
       </c>
       <c r="E70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B71" t="n">
-        <v>63.3776677259688</v>
+        <v>79.3318305400507</v>
       </c>
       <c r="C71" t="n">
-        <v>59.2148191012725</v>
+        <v>73.2087750566274</v>
       </c>
       <c r="D71" t="n">
-        <v>67.5405163506652</v>
+        <v>85.454886023474</v>
       </c>
       <c r="E71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B72" t="n">
-        <v>87.5032786022504</v>
+        <v>56.6663585514635</v>
       </c>
       <c r="C72" t="n">
-        <v>83.4445668643611</v>
+        <v>47.8002567541119</v>
       </c>
       <c r="D72" t="n">
-        <v>91.5619903401396</v>
+        <v>65.5324603488151</v>
       </c>
       <c r="E72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" t="n">
+        <v>77.4540600482755</v>
+      </c>
+      <c r="C73" t="n">
+        <v>70.6523148791807</v>
+      </c>
+      <c r="D73" t="n">
+        <v>84.2558052173703</v>
+      </c>
+      <c r="E73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" t="n">
+        <v>66.1815968025775</v>
+      </c>
+      <c r="C74" t="n">
+        <v>59.3861228877491</v>
+      </c>
+      <c r="D74" t="n">
+        <v>72.9770707174058</v>
+      </c>
+      <c r="E74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="n">
+        <v>64.7145596361043</v>
+      </c>
+      <c r="C75" t="n">
+        <v>56.3374952091266</v>
+      </c>
+      <c r="D75" t="n">
+        <v>73.091624063082</v>
+      </c>
+      <c r="E75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="n">
+        <v>63.3776677259688</v>
+      </c>
+      <c r="C76" t="n">
+        <v>59.2148191012725</v>
+      </c>
+      <c r="D76" t="n">
+        <v>67.5405163506652</v>
+      </c>
+      <c r="E76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="n">
+        <v>55.4489061890469</v>
+      </c>
+      <c r="C77" t="n">
+        <v>48.72666452904</v>
+      </c>
+      <c r="D77" t="n">
+        <v>62.1711478490537</v>
+      </c>
+      <c r="E77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
         <v>17</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B78" t="n">
+        <v>87.5032786022504</v>
+      </c>
+      <c r="C78" t="n">
+        <v>83.4445668643611</v>
+      </c>
+      <c r="D78" t="n">
+        <v>91.5619903401396</v>
+      </c>
+      <c r="E78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" t="n">
         <v>56.0366948341141</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C79" t="n">
         <v>52.5422461819924</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D79" t="n">
         <v>59.5311434862358</v>
       </c>
-      <c r="E73" t="s">
-        <v>22</v>
+      <c r="E79" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/variables_ncs_gcs_ics_control_by_country.xlsx
+++ b/xlsx/country_comparison/variables_ncs_gcs_ics_control_by_country.xlsx
@@ -437,13 +437,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>67.9579005629342</v>
+        <v>67.8679804978435</v>
       </c>
       <c r="C2" t="n">
-        <v>66.5629159503712</v>
+        <v>66.47906002391</v>
       </c>
       <c r="D2" t="n">
-        <v>69.3528851754971</v>
+        <v>69.256900971777</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -457,10 +457,10 @@
         <v>65.7193301686884</v>
       </c>
       <c r="C3" t="n">
-        <v>63.327250467561</v>
+        <v>63.3414374246431</v>
       </c>
       <c r="D3" t="n">
-        <v>68.1114098698158</v>
+        <v>68.0972229127337</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -590,13 +590,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>67.9794880829724</v>
+        <v>67.987520077397</v>
       </c>
       <c r="C11" t="n">
-        <v>64.3918183919813</v>
+        <v>64.4000884639409</v>
       </c>
       <c r="D11" t="n">
-        <v>71.5671577739635</v>
+        <v>71.5749516908532</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -607,13 +607,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>74.5408968197829</v>
+        <v>74.0846263450239</v>
       </c>
       <c r="C12" t="n">
-        <v>70.4376938517134</v>
+        <v>70.2362618026456</v>
       </c>
       <c r="D12" t="n">
-        <v>78.6440997878525</v>
+        <v>77.9329908874022</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -641,13 +641,13 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>64.0316340570691</v>
+        <v>64.0735542026883</v>
       </c>
       <c r="C14" t="n">
-        <v>61.0437144353759</v>
+        <v>61.0923553714412</v>
       </c>
       <c r="D14" t="n">
-        <v>67.0195536787622</v>
+        <v>67.0547530339354</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -658,13 +658,13 @@
         <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>55.2696634386495</v>
+        <v>55.2953815419129</v>
       </c>
       <c r="C15" t="n">
-        <v>53.7756112874924</v>
+        <v>53.8133973581825</v>
       </c>
       <c r="D15" t="n">
-        <v>56.7637155898066</v>
+        <v>56.7773657256433</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
@@ -678,10 +678,10 @@
         <v>61.0914766632881</v>
       </c>
       <c r="C16" t="n">
-        <v>58.5855589184828</v>
+        <v>58.6004210267478</v>
       </c>
       <c r="D16" t="n">
-        <v>63.5973944080934</v>
+        <v>63.5825322998283</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
@@ -811,13 +811,13 @@
         <v>15</v>
       </c>
       <c r="B24" t="n">
-        <v>56.8487902138407</v>
+        <v>56.8474042011213</v>
       </c>
       <c r="C24" t="n">
-        <v>53.0489556558464</v>
+        <v>53.0475549407763</v>
       </c>
       <c r="D24" t="n">
-        <v>60.6486247718351</v>
+        <v>60.6472534614663</v>
       </c>
       <c r="E24" t="s">
         <v>19</v>
@@ -828,13 +828,13 @@
         <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>48.2451141436668</v>
+        <v>48.4302557813727</v>
       </c>
       <c r="C25" t="n">
-        <v>43.5221330192862</v>
+        <v>44.0801483613297</v>
       </c>
       <c r="D25" t="n">
-        <v>52.9680952680473</v>
+        <v>52.7803632014157</v>
       </c>
       <c r="E25" t="s">
         <v>19</v>
@@ -862,13 +862,13 @@
         <v>18</v>
       </c>
       <c r="B27" t="n">
-        <v>48.604165854654</v>
+        <v>48.666425997025</v>
       </c>
       <c r="C27" t="n">
-        <v>45.4876429339214</v>
+        <v>45.5560116954381</v>
       </c>
       <c r="D27" t="n">
-        <v>51.7206887753866</v>
+        <v>51.7768402986118</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -879,13 +879,13 @@
         <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>64.6020160692236</v>
+        <v>64.7240480131028</v>
       </c>
       <c r="C28" t="n">
-        <v>62.8749675779216</v>
+        <v>63.0045795926267</v>
       </c>
       <c r="D28" t="n">
-        <v>66.3290645605256</v>
+        <v>66.4435164335789</v>
       </c>
       <c r="E28" t="s">
         <v>20</v>
@@ -899,10 +899,10 @@
         <v>68.8160595583607</v>
       </c>
       <c r="C29" t="n">
-        <v>66.1381498908398</v>
+        <v>66.154032049576</v>
       </c>
       <c r="D29" t="n">
-        <v>71.4939692258815</v>
+        <v>71.4780870671454</v>
       </c>
       <c r="E29" t="s">
         <v>20</v>
@@ -1032,13 +1032,13 @@
         <v>15</v>
       </c>
       <c r="B37" t="n">
-        <v>66.5884503407556</v>
+        <v>66.5933688883394</v>
       </c>
       <c r="C37" t="n">
-        <v>62.4353137337371</v>
+        <v>62.4403846149291</v>
       </c>
       <c r="D37" t="n">
-        <v>70.7415869477741</v>
+        <v>70.7463531617498</v>
       </c>
       <c r="E37" t="s">
         <v>20</v>
@@ -1049,13 +1049,13 @@
         <v>16</v>
       </c>
       <c r="B38" t="n">
-        <v>56.6004208236377</v>
+        <v>57.2690723237937</v>
       </c>
       <c r="C38" t="n">
-        <v>49.7486527887399</v>
+        <v>50.7470363646041</v>
       </c>
       <c r="D38" t="n">
-        <v>63.4521888585355</v>
+        <v>63.7911082829833</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -1083,13 +1083,13 @@
         <v>18</v>
       </c>
       <c r="B40" t="n">
-        <v>60.3307739305438</v>
+        <v>60.3471262597791</v>
       </c>
       <c r="C40" t="n">
-        <v>56.7843902921608</v>
+        <v>56.8080642142266</v>
       </c>
       <c r="D40" t="n">
-        <v>63.8771575689268</v>
+        <v>63.8861883053316</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>
@@ -1100,13 +1100,13 @@
         <v>5</v>
       </c>
       <c r="B41" t="n">
-        <v>67.3589957678886</v>
+        <v>67.2054760884641</v>
       </c>
       <c r="C41" t="n">
-        <v>65.6493302674814</v>
+        <v>65.5001731723724</v>
       </c>
       <c r="D41" t="n">
-        <v>69.0686612682958</v>
+        <v>68.9107790045557</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -1117,13 +1117,13 @@
         <v>7</v>
       </c>
       <c r="B42" t="n">
-        <v>73.1501666372061</v>
+        <v>73.150166637206</v>
       </c>
       <c r="C42" t="n">
-        <v>70.5064418539405</v>
+        <v>70.5221212688109</v>
       </c>
       <c r="D42" t="n">
-        <v>75.7938914204716</v>
+        <v>75.7782120056012</v>
       </c>
       <c r="E42" t="s">
         <v>21</v>
@@ -1253,13 +1253,13 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>67.2922348590199</v>
+        <v>67.292535125419</v>
       </c>
       <c r="C50" t="n">
-        <v>63.1361487786572</v>
+        <v>63.1364588496784</v>
       </c>
       <c r="D50" t="n">
-        <v>71.4483209393825</v>
+        <v>71.4486114011597</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -1270,13 +1270,13 @@
         <v>16</v>
       </c>
       <c r="B51" t="n">
-        <v>64.9824905118065</v>
+        <v>63.9033952437169</v>
       </c>
       <c r="C51" t="n">
-        <v>58.870524002589</v>
+        <v>58.2061893987969</v>
       </c>
       <c r="D51" t="n">
-        <v>71.094457021024</v>
+        <v>69.6006010886369</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
@@ -1304,13 +1304,13 @@
         <v>18</v>
       </c>
       <c r="B53" t="n">
-        <v>58.9366541153335</v>
+        <v>58.9468339412676</v>
       </c>
       <c r="C53" t="n">
-        <v>55.2363867199154</v>
+        <v>55.254083851168</v>
       </c>
       <c r="D53" t="n">
-        <v>62.6369215107515</v>
+        <v>62.6395840313673</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
@@ -1321,13 +1321,13 @@
         <v>5</v>
       </c>
       <c r="B54" t="n">
-        <v>68.5061536753791</v>
+        <v>68.518253119246</v>
       </c>
       <c r="C54" t="n">
-        <v>66.8642810881035</v>
+        <v>66.8882724435162</v>
       </c>
       <c r="D54" t="n">
-        <v>70.1480262626546</v>
+        <v>70.1482337949759</v>
       </c>
       <c r="E54" t="s">
         <v>22</v>
@@ -1341,10 +1341,10 @@
         <v>73.33558792255</v>
       </c>
       <c r="C55" t="n">
-        <v>70.753592192039</v>
+        <v>70.7689055039649</v>
       </c>
       <c r="D55" t="n">
-        <v>75.917583653061</v>
+        <v>75.9022703411351</v>
       </c>
       <c r="E55" t="s">
         <v>22</v>
@@ -1474,13 +1474,13 @@
         <v>15</v>
       </c>
       <c r="B63" t="n">
-        <v>70.796250180037</v>
+        <v>70.8149579691965</v>
       </c>
       <c r="C63" t="n">
-        <v>66.7926298110495</v>
+        <v>66.8120913855674</v>
       </c>
       <c r="D63" t="n">
-        <v>74.7998705490245</v>
+        <v>74.8178245528256</v>
       </c>
       <c r="E63" t="s">
         <v>22</v>
@@ -1491,13 +1491,13 @@
         <v>16</v>
       </c>
       <c r="B64" t="n">
-        <v>60.7672609910995</v>
+        <v>60.4866837966034</v>
       </c>
       <c r="C64" t="n">
-        <v>54.3005242852364</v>
+        <v>54.4980227132752</v>
       </c>
       <c r="D64" t="n">
-        <v>67.2339976969626</v>
+        <v>66.4753448799316</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
@@ -1525,13 +1525,13 @@
         <v>18</v>
       </c>
       <c r="B66" t="n">
-        <v>63.6481822477839</v>
+        <v>63.6828257869627</v>
       </c>
       <c r="C66" t="n">
-        <v>60.3376811776607</v>
+        <v>60.3796020159564</v>
       </c>
       <c r="D66" t="n">
-        <v>66.958683317907</v>
+        <v>66.986049557969</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
@@ -1542,13 +1542,13 @@
         <v>5</v>
       </c>
       <c r="B67" t="n">
-        <v>61.9858273857402</v>
+        <v>61.895417279981</v>
       </c>
       <c r="C67" t="n">
-        <v>60.2358718207968</v>
+        <v>60.1645023547081</v>
       </c>
       <c r="D67" t="n">
-        <v>63.7357829506836</v>
+        <v>63.6263322052539</v>
       </c>
       <c r="E67" t="s">
         <v>23</v>
@@ -1562,10 +1562,10 @@
         <v>67.9633244466616</v>
       </c>
       <c r="C68" t="n">
-        <v>65.1732806539072</v>
+        <v>65.1898278582191</v>
       </c>
       <c r="D68" t="n">
-        <v>70.7533682394159</v>
+        <v>70.736821035104</v>
       </c>
       <c r="E68" t="s">
         <v>23</v>
@@ -1695,13 +1695,13 @@
         <v>15</v>
       </c>
       <c r="B76" t="n">
-        <v>63.3776677259688</v>
+        <v>63.3861854984241</v>
       </c>
       <c r="C76" t="n">
-        <v>59.2148191012725</v>
+        <v>59.2235413127094</v>
       </c>
       <c r="D76" t="n">
-        <v>67.5405163506652</v>
+        <v>67.5488296841387</v>
       </c>
       <c r="E76" t="s">
         <v>23</v>
@@ -1712,13 +1712,13 @@
         <v>16</v>
       </c>
       <c r="B77" t="n">
-        <v>55.4489061890469</v>
+        <v>54.11746546684</v>
       </c>
       <c r="C77" t="n">
-        <v>48.72666452904</v>
+        <v>48.0133810262521</v>
       </c>
       <c r="D77" t="n">
-        <v>62.1711478490537</v>
+        <v>60.2215499074278</v>
       </c>
       <c r="E77" t="s">
         <v>23</v>
@@ -1746,13 +1746,13 @@
         <v>18</v>
       </c>
       <c r="B79" t="n">
-        <v>56.0366948341141</v>
+        <v>56.0767240057917</v>
       </c>
       <c r="C79" t="n">
-        <v>52.5422461819924</v>
+        <v>52.589586582689</v>
       </c>
       <c r="D79" t="n">
-        <v>59.5311434862358</v>
+        <v>59.5638614288945</v>
       </c>
       <c r="E79" t="s">
         <v>23</v>

--- a/xlsx/country_comparison/variables_ncs_gcs_ics_control_by_country.xlsx
+++ b/xlsx/country_comparison/variables_ncs_gcs_ics_control_by_country.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">along</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t xml:space="preserve">Russia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
     <t xml:space="preserve">USA</t>
@@ -437,13 +434,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>67.8679804978435</v>
+        <v>67.8255122017956</v>
       </c>
       <c r="C2" t="n">
-        <v>66.47906002391</v>
+        <v>66.435391002076</v>
       </c>
       <c r="D2" t="n">
-        <v>69.256900971777</v>
+        <v>69.2156334015152</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -457,10 +454,10 @@
         <v>65.7193301686884</v>
       </c>
       <c r="C3" t="n">
-        <v>63.3414374246431</v>
+        <v>63.3408430752705</v>
       </c>
       <c r="D3" t="n">
-        <v>68.0972229127337</v>
+        <v>68.0978172621062</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -607,13 +604,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>74.0846263450239</v>
+        <v>73.9047667329172</v>
       </c>
       <c r="C12" t="n">
-        <v>70.2362618026456</v>
+        <v>70.0282519152882</v>
       </c>
       <c r="D12" t="n">
-        <v>77.9329908874022</v>
+        <v>77.7812815505462</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -624,13 +621,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>88.0240645828152</v>
+        <v>64.0735542026883</v>
       </c>
       <c r="C13" t="n">
-        <v>85.1463408835229</v>
+        <v>61.0923553714412</v>
       </c>
       <c r="D13" t="n">
-        <v>90.9017882821076</v>
+        <v>67.0547530339354</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -638,220 +635,220 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>55.3352948193206</v>
+      </c>
+      <c r="C14" t="n">
+        <v>53.8534640960617</v>
+      </c>
+      <c r="D14" t="n">
+        <v>56.8171255425794</v>
+      </c>
+      <c r="E14" t="s">
         <v>18</v>
-      </c>
-      <c r="B14" t="n">
-        <v>64.0735542026883</v>
-      </c>
-      <c r="C14" t="n">
-        <v>61.0923553714412</v>
-      </c>
-      <c r="D14" t="n">
-        <v>67.0547530339354</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>55.2953815419129</v>
+        <v>61.0914766632881</v>
       </c>
       <c r="C15" t="n">
-        <v>53.8133973581825</v>
+        <v>58.5997983925444</v>
       </c>
       <c r="D15" t="n">
-        <v>56.7773657256433</v>
+        <v>63.5831549340317</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" t="n">
-        <v>61.0914766632881</v>
+        <v>64.9673122291722</v>
       </c>
       <c r="C16" t="n">
-        <v>58.6004210267478</v>
+        <v>59.3992033869328</v>
       </c>
       <c r="D16" t="n">
-        <v>63.5825322998283</v>
+        <v>70.5354210714115</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" t="n">
-        <v>64.9673122291722</v>
+        <v>53.4385977368577</v>
       </c>
       <c r="C17" t="n">
-        <v>59.3992033869328</v>
+        <v>48.0321156669202</v>
       </c>
       <c r="D17" t="n">
-        <v>70.5354210714115</v>
+        <v>58.8450798067952</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="n">
-        <v>53.4385977368577</v>
+        <v>77.6272593268426</v>
       </c>
       <c r="C18" t="n">
-        <v>48.0321156669202</v>
+        <v>72.1575735135222</v>
       </c>
       <c r="D18" t="n">
-        <v>58.8450798067952</v>
+        <v>83.096945140163</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" t="n">
-        <v>77.6272593268426</v>
+        <v>50.6505049421928</v>
       </c>
       <c r="C19" t="n">
-        <v>72.1575735135222</v>
+        <v>43.4461438332552</v>
       </c>
       <c r="D19" t="n">
-        <v>83.096945140163</v>
+        <v>57.8548660511305</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>50.6505049421928</v>
+        <v>68.1637766424686</v>
       </c>
       <c r="C20" t="n">
-        <v>43.4461438332552</v>
+        <v>61.4691060486183</v>
       </c>
       <c r="D20" t="n">
-        <v>57.8548660511305</v>
+        <v>74.8584472363189</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" t="n">
-        <v>68.1637766424686</v>
+        <v>58.1054438205453</v>
       </c>
       <c r="C21" t="n">
-        <v>61.4691060486183</v>
+        <v>52.2449554479066</v>
       </c>
       <c r="D21" t="n">
-        <v>74.8584472363189</v>
+        <v>63.9659321931841</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" t="n">
-        <v>58.1054438205453</v>
+        <v>62.3284705512702</v>
       </c>
       <c r="C22" t="n">
-        <v>52.2449554479066</v>
+        <v>54.8202337538028</v>
       </c>
       <c r="D22" t="n">
-        <v>63.9659321931841</v>
+        <v>69.8367073487375</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" t="n">
-        <v>62.3284705512702</v>
+        <v>56.8474042011213</v>
       </c>
       <c r="C23" t="n">
-        <v>54.8202337538028</v>
+        <v>53.0475549407763</v>
       </c>
       <c r="D23" t="n">
-        <v>69.8367073487375</v>
+        <v>60.6472534614663</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>56.8474042011213</v>
+        <v>48.6313846276599</v>
       </c>
       <c r="C24" t="n">
-        <v>53.0475549407763</v>
+        <v>44.2764656460201</v>
       </c>
       <c r="D24" t="n">
-        <v>60.6472534614663</v>
+        <v>52.9863036092996</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" t="n">
-        <v>48.4302557813727</v>
+        <v>48.666425997025</v>
       </c>
       <c r="C25" t="n">
-        <v>44.0801483613297</v>
+        <v>45.5560116954381</v>
       </c>
       <c r="D25" t="n">
-        <v>52.7803632014157</v>
+        <v>51.7768402986118</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B26" t="n">
-        <v>84.6671870687128</v>
+        <v>64.7210522905015</v>
       </c>
       <c r="C26" t="n">
-        <v>81.5370908779266</v>
+        <v>63.0016987755704</v>
       </c>
       <c r="D26" t="n">
-        <v>87.7972832594991</v>
+        <v>66.4404058054326</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -859,16 +856,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B27" t="n">
-        <v>48.666425997025</v>
+        <v>68.8160595583607</v>
       </c>
       <c r="C27" t="n">
-        <v>45.5560116954381</v>
+        <v>66.1533666813068</v>
       </c>
       <c r="D27" t="n">
-        <v>51.7768402986118</v>
+        <v>71.4787524354146</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -876,186 +873,186 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B28" t="n">
-        <v>64.7240480131028</v>
+        <v>75.3397348285344</v>
       </c>
       <c r="C28" t="n">
-        <v>63.0045795926267</v>
+        <v>69.3207133551666</v>
       </c>
       <c r="D28" t="n">
-        <v>66.4435164335789</v>
+        <v>81.3587563019022</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B29" t="n">
-        <v>68.8160595583607</v>
+        <v>62.7385682537816</v>
       </c>
       <c r="C29" t="n">
-        <v>66.154032049576</v>
+        <v>56.9713912622243</v>
       </c>
       <c r="D29" t="n">
-        <v>71.4780870671454</v>
+        <v>68.5057452453388</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>75.3397348285344</v>
+        <v>84.8771216338856</v>
       </c>
       <c r="C30" t="n">
-        <v>69.3207133551666</v>
+        <v>79.8094317803675</v>
       </c>
       <c r="D30" t="n">
-        <v>81.3587563019022</v>
+        <v>89.9448114874036</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31" t="n">
-        <v>62.7385682537816</v>
+        <v>60.3075714398011</v>
       </c>
       <c r="C31" t="n">
-        <v>56.9713912622243</v>
+        <v>52.2319065212922</v>
       </c>
       <c r="D31" t="n">
-        <v>68.5057452453388</v>
+        <v>68.38323635831</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B32" t="n">
-        <v>84.8771216338856</v>
+        <v>70.7904376466329</v>
       </c>
       <c r="C32" t="n">
-        <v>79.8094317803675</v>
+        <v>63.7881425796704</v>
       </c>
       <c r="D32" t="n">
-        <v>89.9448114874036</v>
+        <v>77.7927327135954</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B33" t="n">
-        <v>60.3075714398011</v>
+        <v>63.7497870612938</v>
       </c>
       <c r="C33" t="n">
-        <v>52.2319065212922</v>
+        <v>57.2666608725045</v>
       </c>
       <c r="D33" t="n">
-        <v>68.38323635831</v>
+        <v>70.2329132500831</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B34" t="n">
-        <v>70.7904376466329</v>
+        <v>61.691572049826</v>
       </c>
       <c r="C34" t="n">
-        <v>63.7881425796704</v>
+        <v>53.0296256962493</v>
       </c>
       <c r="D34" t="n">
-        <v>77.7927327135954</v>
+        <v>70.3535184034027</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B35" t="n">
-        <v>63.7497870612938</v>
+        <v>66.5933688883394</v>
       </c>
       <c r="C35" t="n">
-        <v>57.2666608725045</v>
+        <v>62.4403846149291</v>
       </c>
       <c r="D35" t="n">
-        <v>70.2329132500831</v>
+        <v>70.7463531617498</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>61.691572049826</v>
+        <v>57.2690723237937</v>
       </c>
       <c r="C36" t="n">
-        <v>53.0296256962493</v>
+        <v>50.7470363646041</v>
       </c>
       <c r="D36" t="n">
-        <v>70.3535184034027</v>
+        <v>63.7911082829833</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B37" t="n">
-        <v>66.5933688883394</v>
+        <v>60.3471262597791</v>
       </c>
       <c r="C37" t="n">
-        <v>62.4403846149291</v>
+        <v>56.8080642142266</v>
       </c>
       <c r="D37" t="n">
-        <v>70.7463531617498</v>
+        <v>63.8861883053316</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B38" t="n">
-        <v>57.2690723237937</v>
+        <v>67.1354010141054</v>
       </c>
       <c r="C38" t="n">
-        <v>50.7470363646041</v>
+        <v>65.427782749948</v>
       </c>
       <c r="D38" t="n">
-        <v>63.7911082829833</v>
+        <v>68.8430192782629</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -1063,16 +1060,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B39" t="n">
-        <v>86.9712358856764</v>
+        <v>73.1501666372061</v>
       </c>
       <c r="C39" t="n">
-        <v>82.7647448389843</v>
+        <v>70.5214643943074</v>
       </c>
       <c r="D39" t="n">
-        <v>91.1777269323686</v>
+        <v>75.7788688801047</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
@@ -1080,16 +1077,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B40" t="n">
-        <v>60.3471262597791</v>
+        <v>75.9578759812179</v>
       </c>
       <c r="C40" t="n">
-        <v>56.8080642142266</v>
+        <v>69.8974349487303</v>
       </c>
       <c r="D40" t="n">
-        <v>63.8861883053316</v>
+        <v>82.0183170137056</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>
@@ -1097,169 +1094,169 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B41" t="n">
-        <v>67.2054760884641</v>
+        <v>71.5781509811605</v>
       </c>
       <c r="C41" t="n">
-        <v>65.5001731723724</v>
+        <v>65.9187615476385</v>
       </c>
       <c r="D41" t="n">
-        <v>68.9107790045557</v>
+        <v>77.2375404146825</v>
       </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B42" t="n">
-        <v>73.150166637206</v>
+        <v>82.6621609973818</v>
       </c>
       <c r="C42" t="n">
-        <v>70.5221212688109</v>
+        <v>77.5661422058304</v>
       </c>
       <c r="D42" t="n">
-        <v>75.7782120056012</v>
+        <v>87.7581797889331</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B43" t="n">
-        <v>75.9578759812179</v>
+        <v>53.9542753382839</v>
       </c>
       <c r="C43" t="n">
-        <v>69.8974349487303</v>
+        <v>44.4656620658742</v>
       </c>
       <c r="D43" t="n">
-        <v>82.0183170137056</v>
+        <v>63.4428886106937</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B44" t="n">
-        <v>71.5781509811605</v>
+        <v>77.7187061273175</v>
       </c>
       <c r="C44" t="n">
-        <v>65.9187615476385</v>
+        <v>70.9686925349925</v>
       </c>
       <c r="D44" t="n">
-        <v>77.2375404146825</v>
+        <v>84.4687197196424</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B45" t="n">
-        <v>82.6621609973818</v>
+        <v>67.466334415845</v>
       </c>
       <c r="C45" t="n">
-        <v>77.5661422058304</v>
+        <v>60.9439017599703</v>
       </c>
       <c r="D45" t="n">
-        <v>87.7581797889331</v>
+        <v>73.9887670717197</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>53.9542753382839</v>
+        <v>63.7890555129928</v>
       </c>
       <c r="C46" t="n">
-        <v>44.4656620658742</v>
+        <v>54.5962842561538</v>
       </c>
       <c r="D46" t="n">
-        <v>63.4428886106937</v>
+        <v>72.9818267698318</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B47" t="n">
-        <v>77.7187061273175</v>
+        <v>67.292535125419</v>
       </c>
       <c r="C47" t="n">
-        <v>70.9686925349925</v>
+        <v>63.1364588496784</v>
       </c>
       <c r="D47" t="n">
-        <v>84.4687197196424</v>
+        <v>71.4486114011597</v>
       </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B48" t="n">
-        <v>67.466334415845</v>
+        <v>63.442019211072</v>
       </c>
       <c r="C48" t="n">
-        <v>60.9439017599703</v>
+        <v>57.6976042102314</v>
       </c>
       <c r="D48" t="n">
-        <v>73.9887670717197</v>
+        <v>69.1864342119125</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B49" t="n">
-        <v>63.7890555129928</v>
+        <v>58.9468339412676</v>
       </c>
       <c r="C49" t="n">
-        <v>54.5962842561538</v>
+        <v>55.254083851168</v>
       </c>
       <c r="D49" t="n">
-        <v>72.9818267698318</v>
+        <v>62.6395840313673</v>
       </c>
       <c r="E49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B50" t="n">
-        <v>67.292535125419</v>
+        <v>68.4899159160604</v>
       </c>
       <c r="C50" t="n">
-        <v>63.1364588496784</v>
+        <v>66.8593150984853</v>
       </c>
       <c r="D50" t="n">
-        <v>71.4486114011597</v>
+        <v>70.1205167336354</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -1267,16 +1264,16 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B51" t="n">
-        <v>63.9033952437169</v>
+        <v>73.33558792255</v>
       </c>
       <c r="C51" t="n">
-        <v>58.2061893987969</v>
+        <v>70.7682639670037</v>
       </c>
       <c r="D51" t="n">
-        <v>69.6006010886369</v>
+        <v>75.9029118780962</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
@@ -1284,16 +1281,16 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B52" t="n">
-        <v>86.513074970901</v>
+        <v>76.3148103910017</v>
       </c>
       <c r="C52" t="n">
-        <v>82.3040143916166</v>
+        <v>70.4373067077145</v>
       </c>
       <c r="D52" t="n">
-        <v>90.7221355501854</v>
+        <v>82.192314074289</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
@@ -1301,16 +1298,16 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B53" t="n">
-        <v>58.9468339412676</v>
+        <v>77.0272348727413</v>
       </c>
       <c r="C53" t="n">
-        <v>55.254083851168</v>
+        <v>71.9336184691947</v>
       </c>
       <c r="D53" t="n">
-        <v>62.6395840313673</v>
+        <v>82.120851276288</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
@@ -1318,152 +1315,152 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B54" t="n">
-        <v>68.518253119246</v>
+        <v>78.8435848365109</v>
       </c>
       <c r="C54" t="n">
-        <v>66.8882724435162</v>
+        <v>72.8771340865586</v>
       </c>
       <c r="D54" t="n">
-        <v>70.1482337949759</v>
+        <v>84.8100355864632</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B55" t="n">
-        <v>73.33558792255</v>
+        <v>71.308717218709</v>
       </c>
       <c r="C55" t="n">
-        <v>70.7689055039649</v>
+        <v>63.5032387370733</v>
       </c>
       <c r="D55" t="n">
-        <v>75.9022703411351</v>
+        <v>79.1141957003448</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B56" t="n">
-        <v>76.3148103910017</v>
+        <v>74.199477200258</v>
       </c>
       <c r="C56" t="n">
-        <v>70.4373067077145</v>
+        <v>67.077857707321</v>
       </c>
       <c r="D56" t="n">
-        <v>82.192314074289</v>
+        <v>81.321096693195</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B57" t="n">
-        <v>77.0272348727413</v>
+        <v>62.534539350272</v>
       </c>
       <c r="C57" t="n">
-        <v>71.9336184691947</v>
+        <v>56.2410190182159</v>
       </c>
       <c r="D57" t="n">
-        <v>82.120851276288</v>
+        <v>68.828059682328</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B58" t="n">
-        <v>78.8435848365109</v>
+        <v>74.3491876231661</v>
       </c>
       <c r="C58" t="n">
-        <v>72.8771340865586</v>
+        <v>66.2614369313852</v>
       </c>
       <c r="D58" t="n">
-        <v>84.8100355864632</v>
+        <v>82.4369383149469</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B59" t="n">
-        <v>71.308717218709</v>
+        <v>70.8149579691965</v>
       </c>
       <c r="C59" t="n">
-        <v>63.5032387370733</v>
+        <v>66.8120913855674</v>
       </c>
       <c r="D59" t="n">
-        <v>79.1141957003448</v>
+        <v>74.8178245528256</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B60" t="n">
-        <v>74.199477200258</v>
+        <v>60.1821932205212</v>
       </c>
       <c r="C60" t="n">
-        <v>67.077857707321</v>
+        <v>54.1620904472528</v>
       </c>
       <c r="D60" t="n">
-        <v>81.321096693195</v>
+        <v>66.2022959937895</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B61" t="n">
-        <v>62.534539350272</v>
+        <v>63.6828257869627</v>
       </c>
       <c r="C61" t="n">
-        <v>56.2410190182159</v>
+        <v>60.3796020159564</v>
       </c>
       <c r="D61" t="n">
-        <v>68.828059682328</v>
+        <v>66.986049557969</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B62" t="n">
-        <v>74.3491876231661</v>
+        <v>61.8798692282585</v>
       </c>
       <c r="C62" t="n">
-        <v>66.2614369313852</v>
+        <v>60.1485598973454</v>
       </c>
       <c r="D62" t="n">
-        <v>82.4369383149469</v>
+        <v>63.6111785591716</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -1471,16 +1468,16 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B63" t="n">
-        <v>70.8149579691965</v>
+        <v>67.9633244466616</v>
       </c>
       <c r="C63" t="n">
-        <v>66.8120913855674</v>
+        <v>65.189134628484</v>
       </c>
       <c r="D63" t="n">
-        <v>74.8178245528256</v>
+        <v>70.7375142648391</v>
       </c>
       <c r="E63" t="s">
         <v>22</v>
@@ -1488,16 +1485,16 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B64" t="n">
-        <v>60.4866837966034</v>
+        <v>61.4641799995525</v>
       </c>
       <c r="C64" t="n">
-        <v>54.4980227132752</v>
+        <v>54.8020284324472</v>
       </c>
       <c r="D64" t="n">
-        <v>66.4753448799316</v>
+        <v>68.1263315666578</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
@@ -1505,16 +1502,16 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B65" t="n">
-        <v>90.518282762834</v>
+        <v>68.0628787989001</v>
       </c>
       <c r="C65" t="n">
-        <v>86.8195647466605</v>
+        <v>62.4705139067261</v>
       </c>
       <c r="D65" t="n">
-        <v>94.2170007790074</v>
+        <v>73.6552436910742</v>
       </c>
       <c r="E65" t="s">
         <v>22</v>
@@ -1522,16 +1519,16 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B66" t="n">
-        <v>63.6828257869627</v>
+        <v>79.3318305400507</v>
       </c>
       <c r="C66" t="n">
-        <v>60.3796020159564</v>
+        <v>73.2087750566274</v>
       </c>
       <c r="D66" t="n">
-        <v>66.986049557969</v>
+        <v>85.454886023474</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
@@ -1539,223 +1536,121 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B67" t="n">
-        <v>61.895417279981</v>
+        <v>56.6663585514635</v>
       </c>
       <c r="C67" t="n">
-        <v>60.1645023547081</v>
+        <v>47.8002567541119</v>
       </c>
       <c r="D67" t="n">
-        <v>63.6263322052539</v>
+        <v>65.5324603488151</v>
       </c>
       <c r="E67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B68" t="n">
-        <v>67.9633244466616</v>
+        <v>77.4540600482755</v>
       </c>
       <c r="C68" t="n">
-        <v>65.1898278582191</v>
+        <v>70.6523148791807</v>
       </c>
       <c r="D68" t="n">
-        <v>70.736821035104</v>
+        <v>84.2558052173703</v>
       </c>
       <c r="E68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B69" t="n">
-        <v>61.4641799995525</v>
+        <v>66.1815968025775</v>
       </c>
       <c r="C69" t="n">
-        <v>54.8020284324472</v>
+        <v>59.3861228877491</v>
       </c>
       <c r="D69" t="n">
-        <v>68.1263315666578</v>
+        <v>72.9770707174058</v>
       </c>
       <c r="E69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B70" t="n">
-        <v>68.0628787989001</v>
+        <v>64.7145596361043</v>
       </c>
       <c r="C70" t="n">
-        <v>62.4705139067261</v>
+        <v>56.3374952091266</v>
       </c>
       <c r="D70" t="n">
-        <v>73.6552436910742</v>
+        <v>73.091624063082</v>
       </c>
       <c r="E70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B71" t="n">
-        <v>79.3318305400507</v>
+        <v>63.3861854984241</v>
       </c>
       <c r="C71" t="n">
-        <v>73.2087750566274</v>
+        <v>59.2235413127094</v>
       </c>
       <c r="D71" t="n">
-        <v>85.454886023474</v>
+        <v>67.5488296841387</v>
       </c>
       <c r="E71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B72" t="n">
-        <v>56.6663585514635</v>
+        <v>54.0183622108344</v>
       </c>
       <c r="C72" t="n">
-        <v>47.8002567541119</v>
+        <v>47.9013277781348</v>
       </c>
       <c r="D72" t="n">
-        <v>65.5324603488151</v>
+        <v>60.135396643534</v>
       </c>
       <c r="E72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B73" t="n">
-        <v>77.4540600482755</v>
+        <v>56.0767240057917</v>
       </c>
       <c r="C73" t="n">
-        <v>70.6523148791807</v>
+        <v>52.589586582689</v>
       </c>
       <c r="D73" t="n">
-        <v>84.2558052173703</v>
+        <v>59.5638614288945</v>
       </c>
       <c r="E73" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" t="n">
-        <v>66.1815968025775</v>
-      </c>
-      <c r="C74" t="n">
-        <v>59.3861228877491</v>
-      </c>
-      <c r="D74" t="n">
-        <v>72.9770707174058</v>
-      </c>
-      <c r="E74" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>14</v>
-      </c>
-      <c r="B75" t="n">
-        <v>64.7145596361043</v>
-      </c>
-      <c r="C75" t="n">
-        <v>56.3374952091266</v>
-      </c>
-      <c r="D75" t="n">
-        <v>73.091624063082</v>
-      </c>
-      <c r="E75" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" t="n">
-        <v>63.3861854984241</v>
-      </c>
-      <c r="C76" t="n">
-        <v>59.2235413127094</v>
-      </c>
-      <c r="D76" t="n">
-        <v>67.5488296841387</v>
-      </c>
-      <c r="E76" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>16</v>
-      </c>
-      <c r="B77" t="n">
-        <v>54.11746546684</v>
-      </c>
-      <c r="C77" t="n">
-        <v>48.0133810262521</v>
-      </c>
-      <c r="D77" t="n">
-        <v>60.2215499074278</v>
-      </c>
-      <c r="E77" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>17</v>
-      </c>
-      <c r="B78" t="n">
-        <v>87.5032786022504</v>
-      </c>
-      <c r="C78" t="n">
-        <v>83.4445668643611</v>
-      </c>
-      <c r="D78" t="n">
-        <v>91.5619903401396</v>
-      </c>
-      <c r="E78" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>18</v>
-      </c>
-      <c r="B79" t="n">
-        <v>56.0767240057917</v>
-      </c>
-      <c r="C79" t="n">
-        <v>52.589586582689</v>
-      </c>
-      <c r="D79" t="n">
-        <v>59.5638614288945</v>
-      </c>
-      <c r="E79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/variables_ncs_gcs_ics_control_by_country.xlsx
+++ b/xlsx/country_comparison/variables_ncs_gcs_ics_control_by_country.xlsx
@@ -71,16 +71,24 @@
     <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **Low**&lt;br&gt;Other members: Global South + EU&lt;br&gt;(25-33% of world emissions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **Mid**&lt;br&gt;Global South + China&lt;br&gt;(56% of world emissions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **High**&lt;br&gt;Global South + China + EU + various HICs&lt;br&gt;(UK, Japan, Korea, Canada...; 64-72% of emissions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **High**, **color** variant&lt;br&gt;Global South + China + EU + various HICs&lt;br&gt;+ Distributive effects shown using colors on world map</t>
+    <t xml:space="preserve">Supports the GCS if coverage is **Low** 
+Other members: Global South + EU 
+(25-33% of world emissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if coverage is **Mid** 
+Global South + China 
+(56% of world emissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if coverage is **High** 
+Global South + China + EU + various HICs 
+(UK, Japan, Korea, Canada...; 64-72% of emissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if coverage is **High**, **color** variant 
+Global South + China + EU + various HICs 
++ Distributive effects shown using colors on world map</t>
   </si>
 </sst>
 </file>
@@ -434,13 +442,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>67.8255122017956</v>
+        <v>67.7971034621066</v>
       </c>
       <c r="C2" t="n">
-        <v>66.435391002076</v>
+        <v>66.4060461449477</v>
       </c>
       <c r="D2" t="n">
-        <v>69.2156334015152</v>
+        <v>69.1881607792655</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -604,13 +612,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>73.9047667329172</v>
+        <v>73.8102295238027</v>
       </c>
       <c r="C12" t="n">
-        <v>70.0282519152882</v>
+        <v>69.9173212117554</v>
       </c>
       <c r="D12" t="n">
-        <v>77.7812815505462</v>
+        <v>77.70313783585</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -638,13 +646,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>55.3352948193206</v>
+        <v>55.3296942977469</v>
       </c>
       <c r="C14" t="n">
-        <v>53.8534640960617</v>
+        <v>53.8471289764683</v>
       </c>
       <c r="D14" t="n">
-        <v>56.8171255425794</v>
+        <v>56.8122596190256</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -808,13 +816,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>48.6313846276599</v>
+        <v>48.5761024007792</v>
       </c>
       <c r="C24" t="n">
-        <v>44.2764656460201</v>
+        <v>44.2083508526147</v>
       </c>
       <c r="D24" t="n">
-        <v>52.9863036092996</v>
+        <v>52.9438539489438</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
@@ -1046,13 +1054,13 @@
         <v>5</v>
       </c>
       <c r="B38" t="n">
-        <v>67.1354010141054</v>
+        <v>67.1068857857389</v>
       </c>
       <c r="C38" t="n">
-        <v>65.427782749948</v>
+        <v>65.398148692157</v>
       </c>
       <c r="D38" t="n">
-        <v>68.8430192782629</v>
+        <v>68.8156228793208</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -1216,13 +1224,13 @@
         <v>16</v>
       </c>
       <c r="B48" t="n">
-        <v>63.442019211072</v>
+        <v>63.180865855067</v>
       </c>
       <c r="C48" t="n">
-        <v>57.6976042102314</v>
+        <v>57.4064206273406</v>
       </c>
       <c r="D48" t="n">
-        <v>69.1864342119125</v>
+        <v>68.9553110827935</v>
       </c>
       <c r="E48" t="s">
         <v>20</v>
@@ -1250,13 +1258,13 @@
         <v>5</v>
       </c>
       <c r="B50" t="n">
-        <v>68.4899159160604</v>
+        <v>68.4640848889378</v>
       </c>
       <c r="C50" t="n">
-        <v>66.8593150984853</v>
+        <v>66.8324549522336</v>
       </c>
       <c r="D50" t="n">
-        <v>70.1205167336354</v>
+        <v>70.095714825642</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -1420,13 +1428,13 @@
         <v>16</v>
       </c>
       <c r="B60" t="n">
-        <v>60.1821932205212</v>
+        <v>59.8978761247204</v>
       </c>
       <c r="C60" t="n">
-        <v>54.1620904472528</v>
+        <v>53.8467358677426</v>
       </c>
       <c r="D60" t="n">
-        <v>66.2022959937895</v>
+        <v>65.9490163816982</v>
       </c>
       <c r="E60" t="s">
         <v>21</v>
@@ -1454,13 +1462,13 @@
         <v>5</v>
       </c>
       <c r="B62" t="n">
-        <v>61.8798692282585</v>
+        <v>61.8966560897</v>
       </c>
       <c r="C62" t="n">
-        <v>60.1485598973454</v>
+        <v>60.1646532127507</v>
       </c>
       <c r="D62" t="n">
-        <v>63.6111785591716</v>
+        <v>63.6286589666493</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -1624,13 +1632,13 @@
         <v>16</v>
       </c>
       <c r="B72" t="n">
-        <v>54.0183622108344</v>
+        <v>54.1378328703989</v>
       </c>
       <c r="C72" t="n">
-        <v>47.9013277781348</v>
+        <v>47.9978727513762</v>
       </c>
       <c r="D72" t="n">
-        <v>60.135396643534</v>
+        <v>60.2777929894216</v>
       </c>
       <c r="E72" t="s">
         <v>22</v>

--- a/xlsx/country_comparison/variables_ncs_gcs_ics_control_by_country.xlsx
+++ b/xlsx/country_comparison/variables_ncs_gcs_ics_control_by_country.xlsx
@@ -71,24 +71,16 @@
     <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **Low** 
-Other members: Global South + EU 
-(25-33% of world emissions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **Mid** 
-Global South + China 
-(56% of world emissions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **High** 
-Global South + China + EU + various HICs 
-(UK, Japan, Korea, Canada...; 64-72% of emissions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **High**, **color** variant 
-Global South + China + EU + various HICs 
-+ Distributive effects shown using colors on world map</t>
+    <t xml:space="preserve">Supports the GCS if coverage is **Low**&lt;br&gt;Other members: Global South + EU&lt;br&gt;(25-33% of world emissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if coverage is **Mid**&lt;br&gt;Global South + China&lt;br&gt;(56% of world emissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if coverage is **High**&lt;br&gt;Global South + China + EU + various HICs&lt;br&gt;(UK, Japan, Korea, Canada...; 64-72% of emissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if coverage is **High**, **color** variant&lt;br&gt;Global South + China + EU + various HICs&lt;br&gt;+ Distributive effects shown using colors on world map</t>
   </si>
 </sst>
 </file>
@@ -442,13 +434,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>67.7971034621066</v>
+        <v>67.8255122017956</v>
       </c>
       <c r="C2" t="n">
-        <v>66.4060461449477</v>
+        <v>66.435391002076</v>
       </c>
       <c r="D2" t="n">
-        <v>69.1881607792655</v>
+        <v>69.2156334015152</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -612,13 +604,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>73.8102295238027</v>
+        <v>73.9047667329172</v>
       </c>
       <c r="C12" t="n">
-        <v>69.9173212117554</v>
+        <v>70.0282519152882</v>
       </c>
       <c r="D12" t="n">
-        <v>77.70313783585</v>
+        <v>77.7812815505462</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -646,13 +638,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>55.3296942977469</v>
+        <v>55.3352948193206</v>
       </c>
       <c r="C14" t="n">
-        <v>53.8471289764683</v>
+        <v>53.8534640960617</v>
       </c>
       <c r="D14" t="n">
-        <v>56.8122596190256</v>
+        <v>56.8171255425794</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -816,13 +808,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>48.5761024007792</v>
+        <v>48.6313846276599</v>
       </c>
       <c r="C24" t="n">
-        <v>44.2083508526147</v>
+        <v>44.2764656460201</v>
       </c>
       <c r="D24" t="n">
-        <v>52.9438539489438</v>
+        <v>52.9863036092996</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
@@ -1054,13 +1046,13 @@
         <v>5</v>
       </c>
       <c r="B38" t="n">
-        <v>67.1068857857389</v>
+        <v>67.1354010141054</v>
       </c>
       <c r="C38" t="n">
-        <v>65.398148692157</v>
+        <v>65.427782749948</v>
       </c>
       <c r="D38" t="n">
-        <v>68.8156228793208</v>
+        <v>68.8430192782629</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -1224,13 +1216,13 @@
         <v>16</v>
       </c>
       <c r="B48" t="n">
-        <v>63.180865855067</v>
+        <v>63.442019211072</v>
       </c>
       <c r="C48" t="n">
-        <v>57.4064206273406</v>
+        <v>57.6976042102314</v>
       </c>
       <c r="D48" t="n">
-        <v>68.9553110827935</v>
+        <v>69.1864342119125</v>
       </c>
       <c r="E48" t="s">
         <v>20</v>
@@ -1258,13 +1250,13 @@
         <v>5</v>
       </c>
       <c r="B50" t="n">
-        <v>68.4640848889378</v>
+        <v>68.4899159160604</v>
       </c>
       <c r="C50" t="n">
-        <v>66.8324549522336</v>
+        <v>66.8593150984853</v>
       </c>
       <c r="D50" t="n">
-        <v>70.095714825642</v>
+        <v>70.1205167336354</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -1428,13 +1420,13 @@
         <v>16</v>
       </c>
       <c r="B60" t="n">
-        <v>59.8978761247204</v>
+        <v>60.1821932205212</v>
       </c>
       <c r="C60" t="n">
-        <v>53.8467358677426</v>
+        <v>54.1620904472528</v>
       </c>
       <c r="D60" t="n">
-        <v>65.9490163816982</v>
+        <v>66.2022959937895</v>
       </c>
       <c r="E60" t="s">
         <v>21</v>
@@ -1462,13 +1454,13 @@
         <v>5</v>
       </c>
       <c r="B62" t="n">
-        <v>61.8966560897</v>
+        <v>61.8798692282585</v>
       </c>
       <c r="C62" t="n">
-        <v>60.1646532127507</v>
+        <v>60.1485598973454</v>
       </c>
       <c r="D62" t="n">
-        <v>63.6286589666493</v>
+        <v>63.6111785591716</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -1632,13 +1624,13 @@
         <v>16</v>
       </c>
       <c r="B72" t="n">
-        <v>54.1378328703989</v>
+        <v>54.0183622108344</v>
       </c>
       <c r="C72" t="n">
-        <v>47.9978727513762</v>
+        <v>47.9013277781348</v>
       </c>
       <c r="D72" t="n">
-        <v>60.2777929894216</v>
+        <v>60.135396643534</v>
       </c>
       <c r="E72" t="s">
         <v>22</v>

--- a/xlsx/country_comparison/variables_ncs_gcs_ics_control_by_country.xlsx
+++ b/xlsx/country_comparison/variables_ncs_gcs_ics_control_by_country.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">along</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
     <t xml:space="preserve">USA</t>
@@ -621,13 +624,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>64.0735542026883</v>
+        <v>88.0240645828152</v>
       </c>
       <c r="C13" t="n">
-        <v>61.0923553714412</v>
+        <v>85.1463408835229</v>
       </c>
       <c r="D13" t="n">
-        <v>67.0547530339354</v>
+        <v>90.9017882821076</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -635,220 +638,220 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>55.3352948193206</v>
+        <v>64.0735542026883</v>
       </c>
       <c r="C14" t="n">
-        <v>53.8534640960617</v>
+        <v>61.0923553714412</v>
       </c>
       <c r="D14" t="n">
-        <v>56.8171255425794</v>
+        <v>67.0547530339354</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>61.0914766632881</v>
+        <v>55.3352948193206</v>
       </c>
       <c r="C15" t="n">
-        <v>58.5997983925444</v>
+        <v>53.8534640960617</v>
       </c>
       <c r="D15" t="n">
-        <v>63.5831549340317</v>
+        <v>56.8171255425794</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>64.9673122291722</v>
+        <v>61.0914766632881</v>
       </c>
       <c r="C16" t="n">
-        <v>59.3992033869328</v>
+        <v>58.5997983925444</v>
       </c>
       <c r="D16" t="n">
-        <v>70.5354210714115</v>
+        <v>63.5831549340317</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="n">
-        <v>53.4385977368577</v>
+        <v>64.9673122291722</v>
       </c>
       <c r="C17" t="n">
-        <v>48.0321156669202</v>
+        <v>59.3992033869328</v>
       </c>
       <c r="D17" t="n">
-        <v>58.8450798067952</v>
+        <v>70.5354210714115</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="n">
-        <v>77.6272593268426</v>
+        <v>53.4385977368577</v>
       </c>
       <c r="C18" t="n">
-        <v>72.1575735135222</v>
+        <v>48.0321156669202</v>
       </c>
       <c r="D18" t="n">
-        <v>83.096945140163</v>
+        <v>58.8450798067952</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="n">
-        <v>50.6505049421928</v>
+        <v>77.6272593268426</v>
       </c>
       <c r="C19" t="n">
-        <v>43.4461438332552</v>
+        <v>72.1575735135222</v>
       </c>
       <c r="D19" t="n">
-        <v>57.8548660511305</v>
+        <v>83.096945140163</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" t="n">
-        <v>68.1637766424686</v>
+        <v>50.6505049421928</v>
       </c>
       <c r="C20" t="n">
-        <v>61.4691060486183</v>
+        <v>43.4461438332552</v>
       </c>
       <c r="D20" t="n">
-        <v>74.8584472363189</v>
+        <v>57.8548660511305</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>58.1054438205453</v>
+        <v>68.1637766424686</v>
       </c>
       <c r="C21" t="n">
-        <v>52.2449554479066</v>
+        <v>61.4691060486183</v>
       </c>
       <c r="D21" t="n">
-        <v>63.9659321931841</v>
+        <v>74.8584472363189</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>62.3284705512702</v>
+        <v>58.1054438205453</v>
       </c>
       <c r="C22" t="n">
-        <v>54.8202337538028</v>
+        <v>52.2449554479066</v>
       </c>
       <c r="D22" t="n">
-        <v>69.8367073487375</v>
+        <v>63.9659321931841</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="n">
-        <v>56.8474042011213</v>
+        <v>62.3284705512702</v>
       </c>
       <c r="C23" t="n">
-        <v>53.0475549407763</v>
+        <v>54.8202337538028</v>
       </c>
       <c r="D23" t="n">
-        <v>60.6472534614663</v>
+        <v>69.8367073487375</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="n">
-        <v>48.6313846276599</v>
+        <v>56.8474042011213</v>
       </c>
       <c r="C24" t="n">
-        <v>44.2764656460201</v>
+        <v>53.0475549407763</v>
       </c>
       <c r="D24" t="n">
-        <v>52.9863036092996</v>
+        <v>60.6472534614663</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>48.666425997025</v>
+        <v>48.6313846276599</v>
       </c>
       <c r="C25" t="n">
-        <v>45.5560116954381</v>
+        <v>44.2764656460201</v>
       </c>
       <c r="D25" t="n">
-        <v>51.7768402986118</v>
+        <v>52.9863036092996</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B26" t="n">
-        <v>64.7210522905015</v>
+        <v>84.6671870687128</v>
       </c>
       <c r="C26" t="n">
-        <v>63.0016987755704</v>
+        <v>81.5370908779266</v>
       </c>
       <c r="D26" t="n">
-        <v>66.4404058054326</v>
+        <v>87.7972832594991</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -856,16 +859,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n">
-        <v>68.8160595583607</v>
+        <v>48.666425997025</v>
       </c>
       <c r="C27" t="n">
-        <v>66.1533666813068</v>
+        <v>45.5560116954381</v>
       </c>
       <c r="D27" t="n">
-        <v>71.4787524354146</v>
+        <v>51.7768402986118</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -873,186 +876,186 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>75.3397348285344</v>
+        <v>64.7210522905015</v>
       </c>
       <c r="C28" t="n">
-        <v>69.3207133551666</v>
+        <v>63.0016987755704</v>
       </c>
       <c r="D28" t="n">
-        <v>81.3587563019022</v>
+        <v>66.4404058054326</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" t="n">
-        <v>62.7385682537816</v>
+        <v>68.8160595583607</v>
       </c>
       <c r="C29" t="n">
-        <v>56.9713912622243</v>
+        <v>66.1533666813068</v>
       </c>
       <c r="D29" t="n">
-        <v>68.5057452453388</v>
+        <v>71.4787524354146</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" t="n">
-        <v>84.8771216338856</v>
+        <v>75.3397348285344</v>
       </c>
       <c r="C30" t="n">
-        <v>79.8094317803675</v>
+        <v>69.3207133551666</v>
       </c>
       <c r="D30" t="n">
-        <v>89.9448114874036</v>
+        <v>81.3587563019022</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" t="n">
-        <v>60.3075714398011</v>
+        <v>62.7385682537816</v>
       </c>
       <c r="C31" t="n">
-        <v>52.2319065212922</v>
+        <v>56.9713912622243</v>
       </c>
       <c r="D31" t="n">
-        <v>68.38323635831</v>
+        <v>68.5057452453388</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" t="n">
-        <v>70.7904376466329</v>
+        <v>84.8771216338856</v>
       </c>
       <c r="C32" t="n">
-        <v>63.7881425796704</v>
+        <v>79.8094317803675</v>
       </c>
       <c r="D32" t="n">
-        <v>77.7927327135954</v>
+        <v>89.9448114874036</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" t="n">
-        <v>63.7497870612938</v>
+        <v>60.3075714398011</v>
       </c>
       <c r="C33" t="n">
-        <v>57.2666608725045</v>
+        <v>52.2319065212922</v>
       </c>
       <c r="D33" t="n">
-        <v>70.2329132500831</v>
+        <v>68.38323635831</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B34" t="n">
-        <v>61.691572049826</v>
+        <v>70.7904376466329</v>
       </c>
       <c r="C34" t="n">
-        <v>53.0296256962493</v>
+        <v>63.7881425796704</v>
       </c>
       <c r="D34" t="n">
-        <v>70.3535184034027</v>
+        <v>77.7927327135954</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" t="n">
-        <v>66.5933688883394</v>
+        <v>63.7497870612938</v>
       </c>
       <c r="C35" t="n">
-        <v>62.4403846149291</v>
+        <v>57.2666608725045</v>
       </c>
       <c r="D35" t="n">
-        <v>70.7463531617498</v>
+        <v>70.2329132500831</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" t="n">
-        <v>57.2690723237937</v>
+        <v>61.691572049826</v>
       </c>
       <c r="C36" t="n">
-        <v>50.7470363646041</v>
+        <v>53.0296256962493</v>
       </c>
       <c r="D36" t="n">
-        <v>63.7911082829833</v>
+        <v>70.3535184034027</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37" t="n">
-        <v>60.3471262597791</v>
+        <v>66.5933688883394</v>
       </c>
       <c r="C37" t="n">
-        <v>56.8080642142266</v>
+        <v>62.4403846149291</v>
       </c>
       <c r="D37" t="n">
-        <v>63.8861883053316</v>
+        <v>70.7463531617498</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B38" t="n">
-        <v>67.1354010141054</v>
+        <v>57.2690723237937</v>
       </c>
       <c r="C38" t="n">
-        <v>65.427782749948</v>
+        <v>50.7470363646041</v>
       </c>
       <c r="D38" t="n">
-        <v>68.8430192782629</v>
+        <v>63.7911082829833</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -1060,16 +1063,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B39" t="n">
-        <v>73.1501666372061</v>
+        <v>86.9712358856764</v>
       </c>
       <c r="C39" t="n">
-        <v>70.5214643943074</v>
+        <v>82.7647448389843</v>
       </c>
       <c r="D39" t="n">
-        <v>75.7788688801047</v>
+        <v>91.1777269323686</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
@@ -1077,16 +1080,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B40" t="n">
-        <v>75.9578759812179</v>
+        <v>60.3471262597791</v>
       </c>
       <c r="C40" t="n">
-        <v>69.8974349487303</v>
+        <v>56.8080642142266</v>
       </c>
       <c r="D40" t="n">
-        <v>82.0183170137056</v>
+        <v>63.8861883053316</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>
@@ -1094,169 +1097,169 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B41" t="n">
-        <v>71.5781509811605</v>
+        <v>67.1354010141054</v>
       </c>
       <c r="C41" t="n">
-        <v>65.9187615476385</v>
+        <v>65.427782749948</v>
       </c>
       <c r="D41" t="n">
-        <v>77.2375404146825</v>
+        <v>68.8430192782629</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B42" t="n">
-        <v>82.6621609973818</v>
+        <v>73.1501666372061</v>
       </c>
       <c r="C42" t="n">
-        <v>77.5661422058304</v>
+        <v>70.5214643943074</v>
       </c>
       <c r="D42" t="n">
-        <v>87.7581797889331</v>
+        <v>75.7788688801047</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B43" t="n">
-        <v>53.9542753382839</v>
+        <v>75.9578759812179</v>
       </c>
       <c r="C43" t="n">
-        <v>44.4656620658742</v>
+        <v>69.8974349487303</v>
       </c>
       <c r="D43" t="n">
-        <v>63.4428886106937</v>
+        <v>82.0183170137056</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B44" t="n">
-        <v>77.7187061273175</v>
+        <v>71.5781509811605</v>
       </c>
       <c r="C44" t="n">
-        <v>70.9686925349925</v>
+        <v>65.9187615476385</v>
       </c>
       <c r="D44" t="n">
-        <v>84.4687197196424</v>
+        <v>77.2375404146825</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B45" t="n">
-        <v>67.466334415845</v>
+        <v>82.6621609973818</v>
       </c>
       <c r="C45" t="n">
-        <v>60.9439017599703</v>
+        <v>77.5661422058304</v>
       </c>
       <c r="D45" t="n">
-        <v>73.9887670717197</v>
+        <v>87.7581797889331</v>
       </c>
       <c r="E45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B46" t="n">
-        <v>63.7890555129928</v>
+        <v>53.9542753382839</v>
       </c>
       <c r="C46" t="n">
-        <v>54.5962842561538</v>
+        <v>44.4656620658742</v>
       </c>
       <c r="D46" t="n">
-        <v>72.9818267698318</v>
+        <v>63.4428886106937</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B47" t="n">
-        <v>67.292535125419</v>
+        <v>77.7187061273175</v>
       </c>
       <c r="C47" t="n">
-        <v>63.1364588496784</v>
+        <v>70.9686925349925</v>
       </c>
       <c r="D47" t="n">
-        <v>71.4486114011597</v>
+        <v>84.4687197196424</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B48" t="n">
-        <v>63.442019211072</v>
+        <v>67.466334415845</v>
       </c>
       <c r="C48" t="n">
-        <v>57.6976042102314</v>
+        <v>60.9439017599703</v>
       </c>
       <c r="D48" t="n">
-        <v>69.1864342119125</v>
+        <v>73.9887670717197</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B49" t="n">
-        <v>58.9468339412676</v>
+        <v>63.7890555129928</v>
       </c>
       <c r="C49" t="n">
-        <v>55.254083851168</v>
+        <v>54.5962842561538</v>
       </c>
       <c r="D49" t="n">
-        <v>62.6395840313673</v>
+        <v>72.9818267698318</v>
       </c>
       <c r="E49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>68.4899159160604</v>
+        <v>67.292535125419</v>
       </c>
       <c r="C50" t="n">
-        <v>66.8593150984853</v>
+        <v>63.1364588496784</v>
       </c>
       <c r="D50" t="n">
-        <v>70.1205167336354</v>
+        <v>71.4486114011597</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -1264,16 +1267,16 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B51" t="n">
-        <v>73.33558792255</v>
+        <v>63.442019211072</v>
       </c>
       <c r="C51" t="n">
-        <v>70.7682639670037</v>
+        <v>57.6976042102314</v>
       </c>
       <c r="D51" t="n">
-        <v>75.9029118780962</v>
+        <v>69.1864342119125</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
@@ -1281,16 +1284,16 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B52" t="n">
-        <v>76.3148103910017</v>
+        <v>86.513074970901</v>
       </c>
       <c r="C52" t="n">
-        <v>70.4373067077145</v>
+        <v>82.3040143916166</v>
       </c>
       <c r="D52" t="n">
-        <v>82.192314074289</v>
+        <v>90.7221355501854</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
@@ -1298,16 +1301,16 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B53" t="n">
-        <v>77.0272348727413</v>
+        <v>58.9468339412676</v>
       </c>
       <c r="C53" t="n">
-        <v>71.9336184691947</v>
+        <v>55.254083851168</v>
       </c>
       <c r="D53" t="n">
-        <v>82.120851276288</v>
+        <v>62.6395840313673</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
@@ -1315,152 +1318,152 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B54" t="n">
-        <v>78.8435848365109</v>
+        <v>68.4899159160604</v>
       </c>
       <c r="C54" t="n">
-        <v>72.8771340865586</v>
+        <v>66.8593150984853</v>
       </c>
       <c r="D54" t="n">
-        <v>84.8100355864632</v>
+        <v>70.1205167336354</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B55" t="n">
-        <v>71.308717218709</v>
+        <v>73.33558792255</v>
       </c>
       <c r="C55" t="n">
-        <v>63.5032387370733</v>
+        <v>70.7682639670037</v>
       </c>
       <c r="D55" t="n">
-        <v>79.1141957003448</v>
+        <v>75.9029118780962</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B56" t="n">
-        <v>74.199477200258</v>
+        <v>76.3148103910017</v>
       </c>
       <c r="C56" t="n">
-        <v>67.077857707321</v>
+        <v>70.4373067077145</v>
       </c>
       <c r="D56" t="n">
-        <v>81.321096693195</v>
+        <v>82.192314074289</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B57" t="n">
-        <v>62.534539350272</v>
+        <v>77.0272348727413</v>
       </c>
       <c r="C57" t="n">
-        <v>56.2410190182159</v>
+        <v>71.9336184691947</v>
       </c>
       <c r="D57" t="n">
-        <v>68.828059682328</v>
+        <v>82.120851276288</v>
       </c>
       <c r="E57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B58" t="n">
-        <v>74.3491876231661</v>
+        <v>78.8435848365109</v>
       </c>
       <c r="C58" t="n">
-        <v>66.2614369313852</v>
+        <v>72.8771340865586</v>
       </c>
       <c r="D58" t="n">
-        <v>82.4369383149469</v>
+        <v>84.8100355864632</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B59" t="n">
-        <v>70.8149579691965</v>
+        <v>71.308717218709</v>
       </c>
       <c r="C59" t="n">
-        <v>66.8120913855674</v>
+        <v>63.5032387370733</v>
       </c>
       <c r="D59" t="n">
-        <v>74.8178245528256</v>
+        <v>79.1141957003448</v>
       </c>
       <c r="E59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B60" t="n">
-        <v>60.1821932205212</v>
+        <v>74.199477200258</v>
       </c>
       <c r="C60" t="n">
-        <v>54.1620904472528</v>
+        <v>67.077857707321</v>
       </c>
       <c r="D60" t="n">
-        <v>66.2022959937895</v>
+        <v>81.321096693195</v>
       </c>
       <c r="E60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B61" t="n">
-        <v>63.6828257869627</v>
+        <v>62.534539350272</v>
       </c>
       <c r="C61" t="n">
-        <v>60.3796020159564</v>
+        <v>56.2410190182159</v>
       </c>
       <c r="D61" t="n">
-        <v>66.986049557969</v>
+        <v>68.828059682328</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B62" t="n">
-        <v>61.8798692282585</v>
+        <v>74.3491876231661</v>
       </c>
       <c r="C62" t="n">
-        <v>60.1485598973454</v>
+        <v>66.2614369313852</v>
       </c>
       <c r="D62" t="n">
-        <v>63.6111785591716</v>
+        <v>82.4369383149469</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -1468,16 +1471,16 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B63" t="n">
-        <v>67.9633244466616</v>
+        <v>70.8149579691965</v>
       </c>
       <c r="C63" t="n">
-        <v>65.189134628484</v>
+        <v>66.8120913855674</v>
       </c>
       <c r="D63" t="n">
-        <v>70.7375142648391</v>
+        <v>74.8178245528256</v>
       </c>
       <c r="E63" t="s">
         <v>22</v>
@@ -1485,16 +1488,16 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B64" t="n">
-        <v>61.4641799995525</v>
+        <v>60.1821932205212</v>
       </c>
       <c r="C64" t="n">
-        <v>54.8020284324472</v>
+        <v>54.1620904472528</v>
       </c>
       <c r="D64" t="n">
-        <v>68.1263315666578</v>
+        <v>66.2022959937895</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
@@ -1502,16 +1505,16 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B65" t="n">
-        <v>68.0628787989001</v>
+        <v>90.518282762834</v>
       </c>
       <c r="C65" t="n">
-        <v>62.4705139067261</v>
+        <v>86.8195647466605</v>
       </c>
       <c r="D65" t="n">
-        <v>73.6552436910742</v>
+        <v>94.2170007790074</v>
       </c>
       <c r="E65" t="s">
         <v>22</v>
@@ -1519,16 +1522,16 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B66" t="n">
-        <v>79.3318305400507</v>
+        <v>63.6828257869627</v>
       </c>
       <c r="C66" t="n">
-        <v>73.2087750566274</v>
+        <v>60.3796020159564</v>
       </c>
       <c r="D66" t="n">
-        <v>85.454886023474</v>
+        <v>66.986049557969</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
@@ -1536,121 +1539,223 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B67" t="n">
-        <v>56.6663585514635</v>
+        <v>61.8798692282585</v>
       </c>
       <c r="C67" t="n">
-        <v>47.8002567541119</v>
+        <v>60.1485598973454</v>
       </c>
       <c r="D67" t="n">
-        <v>65.5324603488151</v>
+        <v>63.6111785591716</v>
       </c>
       <c r="E67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B68" t="n">
-        <v>77.4540600482755</v>
+        <v>67.9633244466616</v>
       </c>
       <c r="C68" t="n">
-        <v>70.6523148791807</v>
+        <v>65.189134628484</v>
       </c>
       <c r="D68" t="n">
-        <v>84.2558052173703</v>
+        <v>70.7375142648391</v>
       </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B69" t="n">
-        <v>66.1815968025775</v>
+        <v>61.4641799995525</v>
       </c>
       <c r="C69" t="n">
-        <v>59.3861228877491</v>
+        <v>54.8020284324472</v>
       </c>
       <c r="D69" t="n">
-        <v>72.9770707174058</v>
+        <v>68.1263315666578</v>
       </c>
       <c r="E69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B70" t="n">
-        <v>64.7145596361043</v>
+        <v>68.0628787989001</v>
       </c>
       <c r="C70" t="n">
-        <v>56.3374952091266</v>
+        <v>62.4705139067261</v>
       </c>
       <c r="D70" t="n">
-        <v>73.091624063082</v>
+        <v>73.6552436910742</v>
       </c>
       <c r="E70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B71" t="n">
-        <v>63.3861854984241</v>
+        <v>79.3318305400507</v>
       </c>
       <c r="C71" t="n">
-        <v>59.2235413127094</v>
+        <v>73.2087750566274</v>
       </c>
       <c r="D71" t="n">
-        <v>67.5488296841387</v>
+        <v>85.454886023474</v>
       </c>
       <c r="E71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B72" t="n">
-        <v>54.0183622108344</v>
+        <v>56.6663585514635</v>
       </c>
       <c r="C72" t="n">
-        <v>47.9013277781348</v>
+        <v>47.8002567541119</v>
       </c>
       <c r="D72" t="n">
-        <v>60.135396643534</v>
+        <v>65.5324603488151</v>
       </c>
       <c r="E72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" t="n">
+        <v>77.4540600482755</v>
+      </c>
+      <c r="C73" t="n">
+        <v>70.6523148791807</v>
+      </c>
+      <c r="D73" t="n">
+        <v>84.2558052173703</v>
+      </c>
+      <c r="E73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" t="n">
+        <v>66.1815968025775</v>
+      </c>
+      <c r="C74" t="n">
+        <v>59.3861228877491</v>
+      </c>
+      <c r="D74" t="n">
+        <v>72.9770707174058</v>
+      </c>
+      <c r="E74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="n">
+        <v>64.7145596361043</v>
+      </c>
+      <c r="C75" t="n">
+        <v>56.3374952091266</v>
+      </c>
+      <c r="D75" t="n">
+        <v>73.091624063082</v>
+      </c>
+      <c r="E75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="n">
+        <v>63.3861854984241</v>
+      </c>
+      <c r="C76" t="n">
+        <v>59.2235413127094</v>
+      </c>
+      <c r="D76" t="n">
+        <v>67.5488296841387</v>
+      </c>
+      <c r="E76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="n">
+        <v>54.0183622108344</v>
+      </c>
+      <c r="C77" t="n">
+        <v>47.9013277781348</v>
+      </c>
+      <c r="D77" t="n">
+        <v>60.135396643534</v>
+      </c>
+      <c r="E77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
         <v>17</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B78" t="n">
+        <v>87.5032786022504</v>
+      </c>
+      <c r="C78" t="n">
+        <v>83.4445668643611</v>
+      </c>
+      <c r="D78" t="n">
+        <v>91.5619903401396</v>
+      </c>
+      <c r="E78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" t="n">
         <v>56.0767240057917</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C79" t="n">
         <v>52.589586582689</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D79" t="n">
         <v>59.5638614288945</v>
       </c>
-      <c r="E73" t="s">
-        <v>22</v>
+      <c r="E79" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
